--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.4581084485118</v>
+        <v>11.12602466666667</v>
       </c>
       <c r="H2">
-        <v>10.4581084485118</v>
+        <v>33.378074</v>
       </c>
       <c r="I2">
-        <v>0.7071080076816657</v>
+        <v>0.7147750296730129</v>
       </c>
       <c r="J2">
-        <v>0.7071080076816657</v>
+        <v>0.714775029673013</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.2005051851692</v>
+        <v>42.23928166666666</v>
       </c>
       <c r="N2">
-        <v>41.2005051851692</v>
+        <v>126.717845</v>
       </c>
       <c r="O2">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946526</v>
       </c>
       <c r="P2">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946528</v>
       </c>
       <c r="Q2">
-        <v>430.8793513599722</v>
+        <v>469.9552897256144</v>
       </c>
       <c r="R2">
-        <v>430.8793513599722</v>
+        <v>4229.59760753053</v>
       </c>
       <c r="S2">
-        <v>0.5196425853611202</v>
+        <v>0.521619615411467</v>
       </c>
       <c r="T2">
-        <v>0.5196425853611202</v>
+        <v>0.5216196154114672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.4581084485118</v>
+        <v>11.12602466666667</v>
       </c>
       <c r="H3">
-        <v>10.4581084485118</v>
+        <v>33.378074</v>
       </c>
       <c r="I3">
-        <v>0.7071080076816657</v>
+        <v>0.7147750296730129</v>
       </c>
       <c r="J3">
-        <v>0.7071080076816657</v>
+        <v>0.714775029673013</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.52835713368666</v>
+        <v>4.624984</v>
       </c>
       <c r="N3">
-        <v>4.52835713368666</v>
+        <v>13.874952</v>
       </c>
       <c r="O3">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="P3">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="Q3">
-        <v>47.35804999768713</v>
+        <v>51.45768606693867</v>
       </c>
       <c r="R3">
-        <v>47.35804999768713</v>
+        <v>463.119174602448</v>
       </c>
       <c r="S3">
-        <v>0.05711403774812097</v>
+        <v>0.0571146638904139</v>
       </c>
       <c r="T3">
-        <v>0.05711403774812097</v>
+        <v>0.05711466389041391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.4581084485118</v>
+        <v>11.12602466666667</v>
       </c>
       <c r="H4">
-        <v>10.4581084485118</v>
+        <v>33.378074</v>
       </c>
       <c r="I4">
-        <v>0.7071080076816657</v>
+        <v>0.7147750296730129</v>
       </c>
       <c r="J4">
-        <v>0.7071080076816657</v>
+        <v>0.714775029673013</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.81800968777916</v>
+        <v>2.151907</v>
       </c>
       <c r="N4">
-        <v>1.81800968777916</v>
+        <v>6.455721</v>
       </c>
       <c r="O4">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="P4">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="Q4">
-        <v>19.01294247523953</v>
+        <v>23.94217036237266</v>
       </c>
       <c r="R4">
-        <v>19.01294247523953</v>
+        <v>215.479533261354</v>
       </c>
       <c r="S4">
-        <v>0.02292970074331009</v>
+        <v>0.02657424220893065</v>
       </c>
       <c r="T4">
-        <v>0.02292970074331009</v>
+        <v>0.02657424220893065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.4581084485118</v>
+        <v>11.12602466666667</v>
       </c>
       <c r="H5">
-        <v>10.4581084485118</v>
+        <v>33.378074</v>
       </c>
       <c r="I5">
-        <v>0.7071080076816657</v>
+        <v>0.7147750296730129</v>
       </c>
       <c r="J5">
-        <v>0.7071080076816657</v>
+        <v>0.714775029673013</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.517061084447789</v>
+        <v>8.864288333333333</v>
       </c>
       <c r="N5">
-        <v>8.517061084447789</v>
+        <v>26.592865</v>
       </c>
       <c r="O5">
-        <v>0.1519169386602037</v>
+        <v>0.1531481985489599</v>
       </c>
       <c r="P5">
-        <v>0.1519169386602037</v>
+        <v>0.15314819854896</v>
       </c>
       <c r="Q5">
-        <v>89.0723484837545</v>
+        <v>98.62429064911221</v>
       </c>
       <c r="R5">
-        <v>89.0723484837545</v>
+        <v>887.6186158420099</v>
       </c>
       <c r="S5">
-        <v>0.1074216838291144</v>
+        <v>0.1094665081622013</v>
       </c>
       <c r="T5">
-        <v>0.1074216838291144</v>
+        <v>0.1094665081622014</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.69395250312895</v>
+        <v>2.698866333333334</v>
       </c>
       <c r="H6">
-        <v>2.69395250312895</v>
+        <v>8.096599000000001</v>
       </c>
       <c r="I6">
-        <v>0.1821472206618416</v>
+        <v>0.1733846833246127</v>
       </c>
       <c r="J6">
-        <v>0.1821472206618416</v>
+        <v>0.1733846833246127</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.2005051851692</v>
+        <v>42.23928166666666</v>
       </c>
       <c r="N6">
-        <v>41.2005051851692</v>
+        <v>126.717845</v>
       </c>
       <c r="O6">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946526</v>
       </c>
       <c r="P6">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946528</v>
       </c>
       <c r="Q6">
-        <v>110.9922040737638</v>
+        <v>113.9981752343506</v>
       </c>
       <c r="R6">
-        <v>110.9922040737638</v>
+        <v>1025.983577109155</v>
       </c>
       <c r="S6">
-        <v>0.133857135872902</v>
+        <v>0.1265305139092468</v>
       </c>
       <c r="T6">
-        <v>0.133857135872902</v>
+        <v>0.1265305139092468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.69395250312895</v>
+        <v>2.698866333333334</v>
       </c>
       <c r="H7">
-        <v>2.69395250312895</v>
+        <v>8.096599000000001</v>
       </c>
       <c r="I7">
-        <v>0.1821472206618416</v>
+        <v>0.1733846833246127</v>
       </c>
       <c r="J7">
-        <v>0.1821472206618416</v>
+        <v>0.1733846833246127</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.52835713368666</v>
+        <v>4.624984</v>
       </c>
       <c r="N7">
-        <v>4.52835713368666</v>
+        <v>13.874952</v>
       </c>
       <c r="O7">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="P7">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="Q7">
-        <v>12.19917903535701</v>
+        <v>12.48221360980533</v>
       </c>
       <c r="R7">
-        <v>12.19917903535701</v>
+        <v>112.339922488248</v>
       </c>
       <c r="S7">
-        <v>0.01471226902196129</v>
+        <v>0.01385444020947588</v>
       </c>
       <c r="T7">
-        <v>0.01471226902196129</v>
+        <v>0.01385444020947588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.69395250312895</v>
+        <v>2.698866333333334</v>
       </c>
       <c r="H8">
-        <v>2.69395250312895</v>
+        <v>8.096599000000001</v>
       </c>
       <c r="I8">
-        <v>0.1821472206618416</v>
+        <v>0.1733846833246127</v>
       </c>
       <c r="J8">
-        <v>0.1821472206618416</v>
+        <v>0.1733846833246127</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.81800968777916</v>
+        <v>2.151907</v>
       </c>
       <c r="N8">
-        <v>1.81800968777916</v>
+        <v>6.455721</v>
       </c>
       <c r="O8">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="P8">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="Q8">
-        <v>4.897631749105349</v>
+        <v>5.807709354764334</v>
       </c>
       <c r="R8">
-        <v>4.897631749105349</v>
+        <v>52.26938419287901</v>
       </c>
       <c r="S8">
-        <v>0.005906567618566638</v>
+        <v>0.006446177298743651</v>
       </c>
       <c r="T8">
-        <v>0.005906567618566638</v>
+        <v>0.006446177298743652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.69395250312895</v>
+        <v>2.698866333333334</v>
       </c>
       <c r="H9">
-        <v>2.69395250312895</v>
+        <v>8.096599000000001</v>
       </c>
       <c r="I9">
-        <v>0.1821472206618416</v>
+        <v>0.1733846833246127</v>
       </c>
       <c r="J9">
-        <v>0.1821472206618416</v>
+        <v>0.1733846833246127</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.517061084447789</v>
+        <v>8.864288333333333</v>
       </c>
       <c r="N9">
-        <v>8.517061084447789</v>
+        <v>26.592865</v>
       </c>
       <c r="O9">
-        <v>0.1519169386602037</v>
+        <v>0.1531481985489599</v>
       </c>
       <c r="P9">
-        <v>0.1519169386602037</v>
+        <v>0.15314819854896</v>
       </c>
       <c r="Q9">
-        <v>22.94455802775029</v>
+        <v>23.92352935179278</v>
       </c>
       <c r="R9">
-        <v>22.94455802775029</v>
+        <v>215.311764166135</v>
       </c>
       <c r="S9">
-        <v>0.02767124814841157</v>
+        <v>0.02655355190714632</v>
       </c>
       <c r="T9">
-        <v>0.02767124814841157</v>
+        <v>0.02655355190714633</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.00817788617064</v>
+        <v>1.076470666666667</v>
       </c>
       <c r="H10">
-        <v>1.00817788617064</v>
+        <v>3.229412</v>
       </c>
       <c r="I10">
-        <v>0.06816630942283636</v>
+        <v>0.06915626881666041</v>
       </c>
       <c r="J10">
-        <v>0.06816630942283636</v>
+        <v>0.06915626881666043</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.2005051851692</v>
+        <v>42.23928166666666</v>
       </c>
       <c r="N10">
-        <v>41.2005051851692</v>
+        <v>126.717845</v>
       </c>
       <c r="O10">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946526</v>
       </c>
       <c r="P10">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946528</v>
       </c>
       <c r="Q10">
-        <v>41.53743822674638</v>
+        <v>45.46934769523777</v>
       </c>
       <c r="R10">
-        <v>41.53743822674638</v>
+        <v>409.22412925714</v>
       </c>
       <c r="S10">
-        <v>0.05009435175136006</v>
+        <v>0.05046800020412131</v>
       </c>
       <c r="T10">
-        <v>0.05009435175136006</v>
+        <v>0.05046800020412133</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.00817788617064</v>
+        <v>1.076470666666667</v>
       </c>
       <c r="H11">
-        <v>1.00817788617064</v>
+        <v>3.229412</v>
       </c>
       <c r="I11">
-        <v>0.06816630942283636</v>
+        <v>0.06915626881666041</v>
       </c>
       <c r="J11">
-        <v>0.06816630942283636</v>
+        <v>0.06915626881666043</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.52835713368666</v>
+        <v>4.624984</v>
       </c>
       <c r="N11">
-        <v>4.52835713368666</v>
+        <v>13.874952</v>
       </c>
       <c r="O11">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="P11">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="Q11">
-        <v>4.565389522865956</v>
+        <v>4.978659609802667</v>
       </c>
       <c r="R11">
-        <v>4.565389522865956</v>
+        <v>44.807936488224</v>
       </c>
       <c r="S11">
-        <v>0.005505881884000218</v>
+        <v>0.005525986338926246</v>
       </c>
       <c r="T11">
-        <v>0.005505881884000218</v>
+        <v>0.005525986338926247</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.00817788617064</v>
+        <v>1.076470666666667</v>
       </c>
       <c r="H12">
-        <v>1.00817788617064</v>
+        <v>3.229412</v>
       </c>
       <c r="I12">
-        <v>0.06816630942283636</v>
+        <v>0.06915626881666041</v>
       </c>
       <c r="J12">
-        <v>0.06816630942283636</v>
+        <v>0.06915626881666043</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.81800968777916</v>
+        <v>2.151907</v>
       </c>
       <c r="N12">
-        <v>1.81800968777916</v>
+        <v>6.455721</v>
       </c>
       <c r="O12">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="P12">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="Q12">
-        <v>1.832877164062939</v>
+        <v>2.316464762894666</v>
       </c>
       <c r="R12">
-        <v>1.832877164062939</v>
+        <v>20.848182866052</v>
       </c>
       <c r="S12">
-        <v>0.002210458740194584</v>
+        <v>0.002571124285973695</v>
       </c>
       <c r="T12">
-        <v>0.002210458740194584</v>
+        <v>0.002571124285973695</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.00817788617064</v>
+        <v>1.076470666666667</v>
       </c>
       <c r="H13">
-        <v>1.00817788617064</v>
+        <v>3.229412</v>
       </c>
       <c r="I13">
-        <v>0.06816630942283636</v>
+        <v>0.06915626881666041</v>
       </c>
       <c r="J13">
-        <v>0.06816630942283636</v>
+        <v>0.06915626881666043</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.517061084447789</v>
+        <v>8.864288333333333</v>
       </c>
       <c r="N13">
-        <v>8.517061084447789</v>
+        <v>26.592865</v>
       </c>
       <c r="O13">
-        <v>0.1519169386602037</v>
+        <v>0.1531481985489599</v>
       </c>
       <c r="P13">
-        <v>0.1519169386602037</v>
+        <v>0.15314819854896</v>
       </c>
       <c r="Q13">
-        <v>8.586712640504791</v>
+        <v>9.542146371708887</v>
       </c>
       <c r="R13">
-        <v>8.586712640504791</v>
+        <v>85.87931734538</v>
       </c>
       <c r="S13">
-        <v>0.01035561704728149</v>
+        <v>0.01059115798763916</v>
       </c>
       <c r="T13">
-        <v>0.01035561704728149</v>
+        <v>0.01059115798763916</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.629734313249226</v>
+        <v>0.6644096666666667</v>
       </c>
       <c r="H14">
-        <v>0.629734313249226</v>
+        <v>1.993229</v>
       </c>
       <c r="I14">
-        <v>0.04257846223365636</v>
+        <v>0.04268401818571407</v>
       </c>
       <c r="J14">
-        <v>0.04257846223365636</v>
+        <v>0.04268401818571407</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>41.2005051851692</v>
+        <v>42.23928166666666</v>
       </c>
       <c r="N14">
-        <v>41.2005051851692</v>
+        <v>126.717845</v>
       </c>
       <c r="O14">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946526</v>
       </c>
       <c r="P14">
-        <v>0.7348843171283376</v>
+        <v>0.7297675404946528</v>
       </c>
       <c r="Q14">
-        <v>25.9453718383037</v>
+        <v>28.06418705238944</v>
       </c>
       <c r="R14">
-        <v>25.9453718383037</v>
+        <v>252.577683471505</v>
       </c>
       <c r="S14">
-        <v>0.03129024414295527</v>
+        <v>0.03114941096981758</v>
       </c>
       <c r="T14">
-        <v>0.03129024414295527</v>
+        <v>0.03114941096981759</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.629734313249226</v>
+        <v>0.6644096666666667</v>
       </c>
       <c r="H15">
-        <v>0.629734313249226</v>
+        <v>1.993229</v>
       </c>
       <c r="I15">
-        <v>0.04257846223365636</v>
+        <v>0.04268401818571407</v>
       </c>
       <c r="J15">
-        <v>0.04257846223365636</v>
+        <v>0.04268401818571407</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.52835713368666</v>
+        <v>4.624984</v>
       </c>
       <c r="N15">
-        <v>4.52835713368666</v>
+        <v>13.874952</v>
       </c>
       <c r="O15">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="P15">
-        <v>0.08077130668534764</v>
+        <v>0.07990579066051323</v>
       </c>
       <c r="Q15">
-        <v>2.851661869729402</v>
+        <v>3.072884077778667</v>
       </c>
       <c r="R15">
-        <v>2.851661869729402</v>
+        <v>27.655956700008</v>
       </c>
       <c r="S15">
-        <v>0.00343911803126515</v>
+        <v>0.003410700221697208</v>
       </c>
       <c r="T15">
-        <v>0.00343911803126515</v>
+        <v>0.003410700221697208</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.629734313249226</v>
+        <v>0.6644096666666667</v>
       </c>
       <c r="H16">
-        <v>0.629734313249226</v>
+        <v>1.993229</v>
       </c>
       <c r="I16">
-        <v>0.04257846223365636</v>
+        <v>0.04268401818571407</v>
       </c>
       <c r="J16">
-        <v>0.04257846223365636</v>
+        <v>0.04268401818571407</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.81800968777916</v>
+        <v>2.151907</v>
       </c>
       <c r="N16">
-        <v>1.81800968777916</v>
+        <v>6.455721</v>
       </c>
       <c r="O16">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="P16">
-        <v>0.03242743752611109</v>
+        <v>0.03717847029587412</v>
       </c>
       <c r="Q16">
-        <v>1.144863082214049</v>
+        <v>1.429747812567667</v>
       </c>
       <c r="R16">
-        <v>1.144863082214049</v>
+        <v>12.867730313109</v>
       </c>
       <c r="S16">
-        <v>0.001380710424039772</v>
+        <v>0.001586926502226121</v>
       </c>
       <c r="T16">
-        <v>0.001380710424039772</v>
+        <v>0.001586926502226121</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.629734313249226</v>
+        <v>0.6644096666666667</v>
       </c>
       <c r="H17">
-        <v>0.629734313249226</v>
+        <v>1.993229</v>
       </c>
       <c r="I17">
-        <v>0.04257846223365636</v>
+        <v>0.04268401818571407</v>
       </c>
       <c r="J17">
-        <v>0.04257846223365636</v>
+        <v>0.04268401818571407</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.517061084447789</v>
+        <v>8.864288333333333</v>
       </c>
       <c r="N17">
-        <v>8.517061084447789</v>
+        <v>26.592865</v>
       </c>
       <c r="O17">
-        <v>0.1519169386602037</v>
+        <v>0.1531481985489599</v>
       </c>
       <c r="P17">
-        <v>0.1519169386602037</v>
+        <v>0.15314819854896</v>
       </c>
       <c r="Q17">
-        <v>5.363485612916437</v>
+        <v>5.889518856787221</v>
       </c>
       <c r="R17">
-        <v>5.363485612916437</v>
+        <v>53.00566971108501</v>
       </c>
       <c r="S17">
-        <v>0.006468389635396172</v>
+        <v>0.006536980491973155</v>
       </c>
       <c r="T17">
-        <v>0.006468389635396172</v>
+        <v>0.006536980491973157</v>
       </c>
     </row>
   </sheetData>
